--- a/xlsx/美国最高法院_intext.xlsx
+++ b/xlsx/美国最高法院_intext.xlsx
@@ -15,2295 +15,2247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="747">
   <si>
     <t>美国最高法院</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%B7%AF%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>经纬度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国首席大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>约翰·格洛佛·罗伯茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>麦克·彭斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+  </si>
+  <si>
+    <t>美国总统行政办公室</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
+  </si>
+  <si>
+    <t>保罗·莱恩</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
+  </si>
+  <si>
+    <t>en-Party leaders of the United States House of Representatives</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
+  </si>
+  <si>
+    <t>en-List of United States congressional districts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>参议院临时议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
+  </si>
+  <si>
+    <t>奥林·哈奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
+  </si>
+  <si>
+    <t>美国参议院政党领袖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国最高法院大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国中期选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>美国第三党派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国政党列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_government</t>
+  </si>
+  <si>
+    <t>en-State government</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>地方政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>州长 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
+  </si>
+  <si>
+    <t>en-State legislature (United States)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>州法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国外交关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国政治列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>Template talk-美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%89%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第三条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%B0%E4%BC%8A</t>
+  </si>
+  <si>
+    <t>约翰·杰伊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%BA%93%E6%AC%A3</t>
+  </si>
+  <si>
+    <t>威廉·库欣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
+  </si>
+  <si>
+    <t>詹姆斯·威尔逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%8B%89%E7%89%B9%E5%88%A9%E5%A5%87</t>
+  </si>
+  <si>
+    <t>约翰·拉特利奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%9F%83%E5%B0%94%E6%96%AF%E6%B2%83%E6%80%9D</t>
+  </si>
+  <si>
+    <t>奥利弗·埃尔斯沃思</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/West_v._Barnes</t>
+  </si>
+  <si>
+    <t>en-West v. Barnes</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%B3%BD%E5%A7%86%E8%AF%89%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>奇泽姆诉乔治亚州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>约翰·马歇尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%A1%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>司法审查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E9%87%8C%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
+  </si>
+  <si>
+    <t>马伯里诉麦迪逊案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%8D%A1%E6%B4%9B%E5%85%8B%E8%AF%89%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>麦卡洛克诉马里兰州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%84%8F%E8%A6%8B%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>多数意见书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7B%C2%B7%E6%89%98%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>罗杰·B·托尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%E8%AF%89%E6%A1%91%E7%A6%8F%E5%BE%B7%E6%A1%88</t>
+  </si>
+  <si>
+    <t>斯科特诉桑福德案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7%E6%B3%A2%E7%89%B9%E5%85%B0%C2%B7%E8%94%A1%E6%96%AF</t>
+  </si>
+  <si>
+    <t>萨蒙·波特兰·蔡斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%A3%AE%C2%B7%E9%9F%A6%E7%89%B9</t>
+  </si>
+  <si>
+    <t>莫里森·韦特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94%C2%B7%E5%AF%8C%E5%8B%92</t>
+  </si>
+  <si>
+    <t>梅尔维尔·富勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E6%80%80%E7%89%B9</t>
+  </si>
+  <si>
+    <t>爱德华·道格拉斯·怀特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
+  </si>
+  <si>
+    <t>威廉·霍华德·塔夫脱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国人权法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·埃文斯·休斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%A6%C2%B7%E8%8F%B2%E6%96%AF%E5%85%8B%C2%B7%E6%96%AF%E9%80%9A</t>
+  </si>
+  <si>
+    <t>哈伦·菲斯克·斯通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%96%87%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>弗雷德·文森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%AF%E6%9D%BE%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
+  </si>
+  <si>
+    <t>是松诉合众国案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Youngstown_Sheet_%26_Tube_Co._v._Sawyer</t>
+  </si>
+  <si>
+    <t>en-Youngstown Sheet &amp; Tube Co. v. Sawyer</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%C2%B7%E6%B2%83%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>厄尔·沃伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
+  </si>
+  <si>
+    <t>种族隔离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%A8%B4%E6%89%98%E7%9A%AE%E5%8D%A1%E6%95%99%E8%82%B2%E5%B1%80%E6%A1%88</t>
+  </si>
+  <si>
+    <t>布朗诉托皮卡教育局案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E6%96%AF%E6%B2%83%E7%88%BE%E5%BE%B7%E8%A8%B4%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>格里斯沃尔德诉康乃狄克州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%BF%AA%E6%81%A9%E8%AF%89%E6%B8%A9%E8%B5%96%E7%89%B9%E6%A1%88</t>
+  </si>
+  <si>
+    <t>吉迪恩诉温赖特案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%8E%84%E5%B0%94%C2%B7%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>沃伦·厄尔·伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%AF%89%E9%9F%A6%E5%BE%B7%E6%A1%88</t>
+  </si>
+  <si>
+    <t>罗诉韦德案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%AE%9A%E6%80%A7%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>肯定性行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BC%A6%E5%A5%8E%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>威廉·伦奎斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BC%97%E5%9B%BD%E8%AF%89%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>合众国诉弗吉尼亚州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BC%A6%E6%96%AF%E8%AF%89%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>劳伦斯诉德克萨斯州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E4%BC%AF%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>约翰·罗伯茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E8%90%A8%E9%9B%B7%E6%96%AF%E8%AF%89%E5%8D%A1%E5%93%88%E7%89%B9%E6%A1%88</t>
+  </si>
+  <si>
+    <t>冈萨雷斯诉卡哈特案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BC%97%E5%9B%BD%E8%AF%89%E6%B8%A9%E8%8E%8E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>合众国诉温莎案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%B4%9D%E6%A0%BC%E8%B4%B9%E5%B0%94%E8%AF%89%E9%9C%8D%E5%A5%87%E6%96%AF%E6%A1%88</t>
+  </si>
+  <si>
+    <t>奥贝格费尔诉霍奇斯案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%85%AC%E6%B0%91%E8%AF%89%E8%81%94%E9%82%A6%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A%E6%A1%88</t>
+  </si>
+  <si>
+    <t>联合公民诉联邦选举委员会案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
+  </si>
+  <si>
+    <t>罗斯福新政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%9E%9C%C2%B7%E5%B8%83%E8%8E%B1%E5%85%8B</t>
+  </si>
+  <si>
+    <t>雨果·布莱克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%80%9D%C2%B7%E9%87%91%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>鲁思·金斯伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>安东尼·甘迺迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%80%AB%E6%96%AF%C2%B7%E6%89%98%E9%A6%AC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>克拉伦斯·托马斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%B8%83%E9%9B%B7%E8%80%B6</t>
+  </si>
+  <si>
+    <t>史蒂芬·布雷耶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%95%BE%E5%A8%9C%C2%B7%E5%8D%A1%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>艾蕾娜·卡根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E9%98%BF%E5%88%A9%E6%89%98</t>
+  </si>
+  <si>
+    <t>塞缪尔·阿利托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E5%A8%85%C2%B7%E7%B4%A2%E6%89%98%E9%A9%AC%E7%BA%A6%E5%B0%94</t>
+  </si>
+  <si>
+    <t>索尼娅·索托马约尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%B0%94%C2%B7%E6%88%88%E8%90%A8%E5%A5%87</t>
+  </si>
+  <si>
+    <t>尼尔·戈萨奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E5%8F%B8%E6%B3%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国参议院司法委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94%C2%B7%E5%93%88%E5%85%B0%E4%BA%8C%E4%B8%96</t>
+  </si>
+  <si>
+    <t>约翰·马歇尔·哈兰二世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>林登·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E4%BA%9A%E4%BC%AF%C2%B7%E6%96%B9%E7%89%B9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·亚伯·方特斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳德·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%AF%A7%C2%B7%E6%96%AF%E5%8D%A1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>安东宁·斯卡利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>奥巴马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%9F%9F%C2%B7%E5%8A%A0%E8%98%AD</t>
+  </si>
+  <si>
+    <t>梅域·加兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%97%E9%95%B7%E8%BE%AF%E8%AB%96</t>
+  </si>
+  <si>
+    <t>冗长辩论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
+  </si>
+  <si>
+    <t>德怀特·艾森豪威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%B2%81%E9%97%A8</t>
+  </si>
+  <si>
+    <t>杜鲁门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>尼克松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>威廉·道格拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%80%AB%E5%A5%8E%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%A6%AC%E6%AD%87%E7%88%BE%C2%B7%E5%93%88%E5%80%AB%E4%BA%8C%E4%B8%96</t>
+  </si>
+  <si>
+    <t>约翰·马歇尔·哈伦二世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E5%B8%83%E8%90%8A%E5%85%8B%E8%92%99</t>
+  </si>
+  <si>
+    <t>哈利·布莱克蒙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%8B%89%C2%B7%E6%88%B4%C2%B7%E5%A5%A5%E5%BA%B7%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>桑德拉·戴·奥康纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>威廉·亨利·哈里森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
+  </si>
+  <si>
+    <t>约翰·泰勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%8D%A1%E9%87%8C%C2%B7%E6%B3%B0%E5%8B%92</t>
+  </si>
+  <si>
+    <t>扎卡里·泰勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8B%92%E5%BE%B7%C2%B7%E8%8F%B2%E5%B0%94%E8%8E%AB%E5%B0%94</t>
+  </si>
+  <si>
+    <t>米勒德·菲尔莫尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>安德鲁·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%8D%A1%E7%89%B9</t>
+  </si>
+  <si>
+    <t>吉米·卡特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%97%A8%E7%BD%97</t>
+  </si>
+  <si>
+    <t>詹姆斯·门罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·W·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
+  </si>
+  <si>
+    <t>安德鲁·杰克逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%B3%95%E7%BD%97</t>
+  </si>
+  <si>
+    <t>布法罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·赫伯特·沃克·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA%E8%81%94%E9%82%A6%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国哥伦比亚特区联邦巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国司法部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>安东尼·肯尼迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>沙加缅度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B9%9D%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第九巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>太平洋大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%87%A1%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>萨凡纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%B1%B1%E9%83%BD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>孟山都公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97</t>
+  </si>
+  <si>
+    <t>布鲁克林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
+  </si>
+  <si>
+    <t>比尔·柯林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国公民自由联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>新泽西州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>旧金山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B8%80%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第一巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>哈佛法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E9%A0%93_(%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>特伦顿 (纽泽西州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·沃克·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B8%89%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第三巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E9%A1%BF%E8%B4%BA%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>薛顿贺尔大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>布朗克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>巴拉克·奥巴马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%BA%8C%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第二巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BA%BD%E7%BA%A6%E5%8D%97%E5%8C%BA%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国纽约南区地方法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%A1</t>
+  </si>
+  <si>
+    <t>纽约郡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>丹佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E7%AC%AC%E5%8D%81%E5%B7%A1%E8%BF%B4%E4%B8%8A%E8%A8%B4%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第十巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8%E6%B3%A2%E5%BE%B7%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>科罗拉多大学波德分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>西班牙裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E6%80%9D%C2%B7%E5%B7%B4%E5%BE%B7%C2%B7%E9%87%91%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>鲁思·巴德·金斯伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>常春藤联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%BE%92</t>
+  </si>
+  <si>
+    <t>新教徒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7B%C2%B7%E5%9D%A6%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>罗杰·B·坦尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%B8%83%E8%98%AD%E8%BF%AA%E6%96%AF</t>
+  </si>
+  <si>
+    <t>路易斯·布兰迪斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E5%8F%A4%E5%BE%B7%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>瑟古德·马歇尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%B8%83%E9%AD%AF%E7%88%BE</t>
+  </si>
+  <si>
+    <t>大卫·布鲁尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E5%85%8B%E6%96%AF%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B%E7%A6%8F%E7%89%B9</t>
+  </si>
+  <si>
+    <t>费利克斯·弗兰克福特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%98%87%E7%89%B9</t>
+  </si>
+  <si>
+    <t>大卫·苏特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BF%9D%E7%BE%85%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·保罗·史蒂文斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%8B%89%C2%B7%E6%88%B4%C2%B7%E5%A5%A7%E5%BA%B7%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>艾尔帕索 (德克萨斯州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%A1%9E%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻塞诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BD%97%E6%96%AF_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>梅尔罗斯 (马萨诸塞州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·H·W·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BF%9D%E7%BD%97%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%8B%89%E5%B0%94%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
+  </si>
+  <si>
+    <t>杰拉尔德·福特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E5%88%A9%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
+  </si>
+  <si>
+    <t>马伯利诉麦迪逊案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%88%A4%E4%BE%8B%E6%8A%A5%E5%91%8A</t>
+  </si>
+  <si>
+    <t>美国联邦最高法院判例报告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%9B%9B%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第四巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%BA%94%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第五巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%85%AD%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第六巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B8%83%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第七巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%85%AB%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第八巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%8D%81%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%8D%81%E4%B8%80%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦第十一巡回上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%B7%A1%E5%9B%9E%E5%8C%BA%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦巡回区上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%A8%B4%E9%9F%8B%E5%BE%B7%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%B4%9B%E8%AF%89%E6%96%B0%E4%BC%A6%E6%95%A6%E5%B8%82%E6%A1%88</t>
+  </si>
+  <si>
+    <t>凯洛诉新伦敦市案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5%E8%AF%89%E8%8B%8F%E5%88%A9%E6%96%87%E6%A1%88</t>
+  </si>
+  <si>
+    <t>纽约时报诉苏利文案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%90%8A%E8%A5%BF%E8%A8%B4%E5%BC%97%E6%A0%BC%E6%A3%AE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>普莱西诉弗格森案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B0%E8%BE%BE%E8%AF%89%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>米兰达诉亚利桑那州案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%89%E6%B8%A9%E8%8E%8E%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国诉温莎案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Oxford_University_Press</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>国际标准书号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>美国法典</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Title_5_of_the_United_States_Code</t>
+  </si>
+  <si>
+    <t>en-Title 5 of the United States Code</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Title_28_of_the_United_States_Code</t>
+  </si>
+  <si>
+    <t>en-Title 28 of the United States Code</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Harvard_Law_Review</t>
+  </si>
+  <si>
+    <t>Harvard Law Review</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/William_Rehnquist</t>
+  </si>
+  <si>
+    <t>William Rehnquist</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/University_of_Chicago_Press</t>
+  </si>
+  <si>
+    <t>University of Chicago Press</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>行政机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国国务院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国财政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国防部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国内政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国农业部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国商务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国劳工部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国卫生及公共服务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国住房及城市发展部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国运输部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国能源部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国教育部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国退伍军人事务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国土安全部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地方法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%B7%AF%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>經緯度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>美國總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國參議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美國首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>約翰·格洛佛·羅伯茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美利坚合众国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>麥克·彭斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
-  </si>
-  <si>
-    <t>美国总统行政办公室</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國眾議院議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
-  </si>
-  <si>
-    <t>保羅·萊恩</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
-  </si>
-  <si>
-    <t>en-Party leaders of the United States House of Representatives</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
-  </si>
-  <si>
-    <t>en-List of United States congressional districts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>參議院臨時議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
-  </si>
-  <si>
-    <t>奧林·哈奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
-  </si>
-  <si>
-    <t>美国参议院政党领袖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美國最高法院大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國中期選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>美国第三党派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国政党列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_government</t>
-  </si>
-  <si>
-    <t>en-State government</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>地方政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>州長 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
-  </si>
-  <si>
-    <t>en-State legislature (United States)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>州法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美国外交关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国政治列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>Template talk-美國政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%89%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第三条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%B0%E4%BC%8A</t>
-  </si>
-  <si>
-    <t>约翰·杰伊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%BA%93%E6%AC%A3</t>
-  </si>
-  <si>
-    <t>威廉·库欣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
-  </si>
-  <si>
-    <t>詹姆斯·威尔逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%8B%89%E7%89%B9%E5%88%A9%E5%A5%87</t>
-  </si>
-  <si>
-    <t>约翰·拉特利奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%9F%83%E5%B0%94%E6%96%AF%E6%B2%83%E6%80%9D</t>
-  </si>
-  <si>
-    <t>奥利弗·埃尔斯沃思</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/West_v._Barnes</t>
-  </si>
-  <si>
-    <t>en-West v. Barnes</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%B3%BD%E5%A7%86%E8%AF%89%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>奇泽姆诉乔治亚州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>约翰·马歇尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%A1%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>司法审查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E9%87%8C%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
-  </si>
-  <si>
-    <t>马伯里诉麦迪逊案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%8D%A1%E6%B4%9B%E5%85%8B%E8%AF%89%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>麦卡洛克诉马里兰州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%84%8F%E8%A6%8B%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>多數意見書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7B%C2%B7%E6%89%98%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>罗杰·B·托尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%E8%AF%89%E6%A1%91%E7%A6%8F%E5%BE%B7%E6%A1%88</t>
-  </si>
-  <si>
-    <t>斯科特诉桑福德案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>美國內戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7%E6%B3%A2%E7%89%B9%E5%85%B0%C2%B7%E8%94%A1%E6%96%AF</t>
-  </si>
-  <si>
-    <t>萨蒙·波特兰·蔡斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%A3%AE%C2%B7%E9%9F%A6%E7%89%B9</t>
-  </si>
-  <si>
-    <t>莫里森·韦特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94%C2%B7%E5%AF%8C%E5%8B%92</t>
-  </si>
-  <si>
-    <t>梅尔维尔·富勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E6%80%80%E7%89%B9</t>
-  </si>
-  <si>
-    <t>爱德华·道格拉斯·怀特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
-  </si>
-  <si>
-    <t>威廉·霍华德·塔夫脱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国人权法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E5%9F%83%E6%96%87%E6%96%AF%C2%B7%E4%BC%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查尔斯·埃文斯·休斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%A6%C2%B7%E8%8F%B2%E6%96%AF%E5%85%8B%C2%B7%E6%96%AF%E9%80%9A</t>
-  </si>
-  <si>
-    <t>哈伦·菲斯克·斯通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%96%87%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>弗雷德·文森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富兰克林·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%AF%E6%9D%BE%E8%AF%89%E5%90%88%E4%BC%97%E5%9B%BD%E6%A1%88</t>
-  </si>
-  <si>
-    <t>是松诉合众国案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Youngstown_Sheet_%26_Tube_Co._v._Sawyer</t>
-  </si>
-  <si>
-    <t>en-Youngstown Sheet &amp; Tube Co. v. Sawyer</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%C2%B7%E6%B2%83%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>厄尔·沃伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
-  </si>
-  <si>
-    <t>种族隔离</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%A8%B4%E6%89%98%E7%9A%AE%E5%8D%A1%E6%95%99%E8%82%B2%E5%B1%80%E6%A1%88</t>
-  </si>
-  <si>
-    <t>布朗訴托皮卡教育局案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E6%96%AF%E6%B2%83%E7%88%BE%E5%BE%B7%E8%A8%B4%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>格里斯沃爾德訴康乃狄克州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%BF%AA%E6%81%A9%E8%AF%89%E6%B8%A9%E8%B5%96%E7%89%B9%E6%A1%88</t>
-  </si>
-  <si>
-    <t>吉迪恩诉温赖特案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%8E%84%E5%B0%94%C2%B7%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>沃伦·厄尔·伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%AF%89%E9%9F%A6%E5%BE%B7%E6%A1%88</t>
-  </si>
-  <si>
-    <t>罗诉韦德案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%AE%9A%E6%80%A7%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>肯定性行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美國死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BC%A6%E5%A5%8E%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>威廉·伦奎斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BC%97%E5%9B%BD%E8%AF%89%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>合众国诉弗吉尼亚州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BC%A6%E6%96%AF%E8%AF%89%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>劳伦斯诉德克萨斯州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E4%BC%AF%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>约翰·罗伯茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E8%90%A8%E9%9B%B7%E6%96%AF%E8%AF%89%E5%8D%A1%E5%93%88%E7%89%B9%E6%A1%88</t>
-  </si>
-  <si>
-    <t>冈萨雷斯诉卡哈特案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美國同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BC%97%E5%9B%BD%E8%AF%89%E6%B8%A9%E8%8E%8E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>合众国诉温莎案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%B4%9D%E6%A0%BC%E8%B4%B9%E5%B0%94%E8%AF%89%E9%9C%8D%E5%A5%87%E6%96%AF%E6%A1%88</t>
-  </si>
-  <si>
-    <t>奥贝格费尔诉霍奇斯案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%85%AC%E6%B0%91%E8%AF%89%E8%81%94%E9%82%A6%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A%E6%A1%88</t>
-  </si>
-  <si>
-    <t>联合公民诉联邦选举委员会案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
-  </si>
-  <si>
-    <t>罗斯福新政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%9E%9C%C2%B7%E5%B8%83%E8%8E%B1%E5%85%8B</t>
-  </si>
-  <si>
-    <t>雨果·布莱克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%80%9D%C2%B7%E9%87%91%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>魯思·金斯伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>安東尼·甘迺迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%80%AB%E6%96%AF%C2%B7%E6%89%98%E9%A6%AC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>克拉倫斯·托馬斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%B8%83%E9%9B%B7%E8%80%B6</t>
-  </si>
-  <si>
-    <t>史蒂芬·布雷耶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%95%BE%E5%A8%9C%C2%B7%E5%8D%A1%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>艾蕾娜·卡根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E9%98%BF%E5%88%A9%E6%89%98</t>
-  </si>
-  <si>
-    <t>塞繆爾·阿利托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E5%A8%85%C2%B7%E7%B4%A2%E6%89%98%E9%A9%AC%E7%BA%A6%E5%B0%94</t>
-  </si>
-  <si>
-    <t>索尼娅·索托马约尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%B0%94%C2%B7%E6%88%88%E8%90%A8%E5%A5%87</t>
-  </si>
-  <si>
-    <t>尼尔·戈萨奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E5%8F%B8%E6%B3%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国参议院司法委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94%C2%B7%E5%93%88%E5%85%B0%E4%BA%8C%E4%B8%96</t>
-  </si>
-  <si>
-    <t>约翰·马歇尔·哈兰二世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>林登·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E4%BA%9A%E4%BC%AF%C2%B7%E6%96%B9%E7%89%B9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>亚伯拉罕·亚伯·方特斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納德·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%AF%A7%C2%B7%E6%96%AF%E5%8D%A1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>安東寧·斯卡利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>奥巴马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%9F%9F%C2%B7%E5%8A%A0%E8%98%AD</t>
-  </si>
-  <si>
-    <t>梅域·加蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%97%E9%95%B7%E8%BE%AF%E8%AB%96</t>
-  </si>
-  <si>
-    <t>冗長辯論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
-  </si>
-  <si>
-    <t>德怀特·艾森豪威尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%B2%81%E9%97%A8</t>
-  </si>
-  <si>
-    <t>杜鲁门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>尼克松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>威廉·道格拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%80%AB%E5%A5%8E%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>威廉·倫奎斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%A6%AC%E6%AD%87%E7%88%BE%C2%B7%E5%93%88%E5%80%AB%E4%BA%8C%E4%B8%96</t>
-  </si>
-  <si>
-    <t>約翰·馬歇爾·哈倫二世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E5%B8%83%E8%90%8A%E5%85%8B%E8%92%99</t>
-  </si>
-  <si>
-    <t>哈利·布萊克蒙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%8B%89%C2%B7%E6%88%B4%C2%B7%E5%A5%A5%E5%BA%B7%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>桑德拉·戴·奥康纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>威廉·亨利·哈里森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
-  </si>
-  <si>
-    <t>约翰·泰勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%8D%A1%E9%87%8C%C2%B7%E6%B3%B0%E5%8B%92</t>
-  </si>
-  <si>
-    <t>扎卡里·泰勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8B%92%E5%BE%B7%C2%B7%E8%8F%B2%E5%B0%94%E8%8E%AB%E5%B0%94</t>
-  </si>
-  <si>
-    <t>米勒德·菲尔莫尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>亚伯拉罕·林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>安德鲁·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%8D%A1%E7%89%B9</t>
-  </si>
-  <si>
-    <t>吉米·卡特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%97%A8%E7%BD%97</t>
-  </si>
-  <si>
-    <t>詹姆斯·门罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·W·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
-  </si>
-  <si>
-    <t>安德鲁·杰克逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美国首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%B3%95%E7%BD%97</t>
-  </si>
-  <si>
-    <t>布法罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>喬治·赫伯特·沃克·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA%E8%81%94%E9%82%A6%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国哥伦比亚特区联邦巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国司法部长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>安東尼·肯尼迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>沙加緬度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>羅納德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B9%9D%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第九巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>太平洋大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>乔治亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%87%A1%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>薩凡納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%B1%B1%E9%83%BD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>孟山都公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97</t>
-  </si>
-  <si>
-    <t>布魯克林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
-  </si>
-  <si>
-    <t>比爾·柯林頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國公民自由聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>哥倫比亞大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>新泽西州立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>舊金山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B8%80%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第一巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>哈佛法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紐澤西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E9%A0%93_(%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>特倫頓 (紐澤西州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>喬治·沃克·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B8%89%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第三巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E9%A1%BF%E8%B4%BA%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>薛顿贺尔大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>布朗克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>巴拉克·奧巴馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%BA%8C%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第二巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BA%BD%E7%BA%A6%E5%8D%97%E5%8C%BA%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国纽约南区地方法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%A1</t>
-  </si>
-  <si>
-    <t>紐約郡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>丹佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E7%AC%AC%E5%8D%81%E5%B7%A1%E8%BF%B4%E4%B8%8A%E8%A8%B4%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國聯邦第十巡迴上訴法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8%E6%B3%A2%E5%BE%B7%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>科羅拉多大學波德分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非裔美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>西班牙裔美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E6%80%9D%C2%B7%E5%B7%B4%E5%BE%B7%C2%B7%E9%87%91%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>鲁思·巴德·金斯伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>常春藤联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科罗拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%BE%92</t>
-  </si>
-  <si>
-    <t>新教徒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7B%C2%B7%E5%9D%A6%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>罗杰·B·坦尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%B8%83%E8%98%AD%E8%BF%AA%E6%96%AF</t>
-  </si>
-  <si>
-    <t>路易斯·布蘭迪斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E5%8F%A4%E5%BE%B7%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>瑟古德·马歇尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%B8%83%E9%AD%AF%E7%88%BE</t>
-  </si>
-  <si>
-    <t>大衛·布魯爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E5%85%8B%E6%96%AF%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B%E7%A6%8F%E7%89%B9</t>
-  </si>
-  <si>
-    <t>费利克斯·弗兰克福特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%98%87%E7%89%B9</t>
-  </si>
-  <si>
-    <t>大衛·蘇特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BF%9D%E7%BE%85%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF</t>
-  </si>
-  <si>
-    <t>約翰·保羅·史蒂文斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%8B%89%C2%B7%E6%88%B4%C2%B7%E5%A5%A7%E5%BA%B7%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>桑德拉·戴·奧康納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗纳德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%A1%9E%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻塞諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BD%97%E6%96%AF_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>梅尔罗斯 (马萨诸塞州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·H·W·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BF%9D%E7%BD%97%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·保罗·史蒂文斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%8B%89%E5%B0%94%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
-  </si>
-  <si>
-    <t>杰拉尔德·福特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E5%88%A9%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
-  </si>
-  <si>
-    <t>马伯利诉麦迪逊案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%88%A4%E4%BE%8B%E6%8A%A5%E5%91%8A</t>
-  </si>
-  <si>
-    <t>美国联邦最高法院判例报告</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%9B%9B%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第四巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%BA%94%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第五巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%85%AD%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第六巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B8%83%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第七巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%85%AB%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第八巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%8D%81%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第十巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E5%8D%81%E4%B8%80%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦第十一巡回上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%B7%A1%E5%9B%9E%E5%8C%BA%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦巡回区上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%A8%B4%E9%9F%8B%E5%BE%B7%E6%A1%88</t>
-  </si>
-  <si>
-    <t>羅訴韋德案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%B4%9B%E8%AF%89%E6%96%B0%E4%BC%A6%E6%95%A6%E5%B8%82%E6%A1%88</t>
-  </si>
-  <si>
-    <t>凯洛诉新伦敦市案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5%E8%AF%89%E8%8B%8F%E5%88%A9%E6%96%87%E6%A1%88</t>
-  </si>
-  <si>
-    <t>纽约时报诉苏利文案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%90%8A%E8%A5%BF%E8%A8%B4%E5%BC%97%E6%A0%BC%E6%A3%AE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>普萊西訴弗格森案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B0%E8%BE%BE%E8%AF%89%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>米兰达诉亚利桑那州案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%89%E6%B8%A9%E8%8E%8E%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国诉温莎案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Oxford_University_Press</t>
-  </si>
-  <si>
-    <t>Oxford University Press</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>国际标准书号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>美國法典</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Title_5_of_the_United_States_Code</t>
-  </si>
-  <si>
-    <t>en-Title 5 of the United States Code</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Title_28_of_the_United_States_Code</t>
-  </si>
-  <si>
-    <t>en-Title 28 of the United States Code</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Harvard_Law_Review</t>
-  </si>
-  <si>
-    <t>Harvard Law Review</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/William_Rehnquist</t>
-  </si>
-  <si>
-    <t>William Rehnquist</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/University_of_Chicago_Press</t>
-  </si>
-  <si>
-    <t>University of Chicago Press</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>行政机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国国务院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国财政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国内政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国农业部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国商务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国劳工部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国卫生及公共服务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國住房及城市發展部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國運輸部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國能源部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國教育部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國退伍軍人事務部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國國土安全部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地方法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2735,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -3051,7 +3003,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
         <v>45</v>
@@ -3077,10 +3029,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>47</v>
@@ -3106,10 +3058,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -3135,10 +3087,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
         <v>59</v>
@@ -3164,10 +3116,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -3193,13 +3145,13 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -3222,10 +3174,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -3251,10 +3203,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -3280,10 +3232,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3309,10 +3261,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3338,10 +3290,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3367,10 +3319,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -3396,10 +3348,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3425,10 +3377,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -3454,10 +3406,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3483,10 +3435,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3512,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3570,10 +3522,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3599,10 +3551,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3628,10 +3580,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3657,10 +3609,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3686,10 +3638,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>56</v>
@@ -3744,10 +3696,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3773,10 +3725,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>50</v>
@@ -3802,10 +3754,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3831,10 +3783,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>14</v>
@@ -3860,10 +3812,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -3889,10 +3841,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3918,10 +3870,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -3947,10 +3899,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>7</v>
@@ -3976,10 +3928,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4005,10 +3957,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4034,10 +3986,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4063,10 +4015,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -4092,10 +4044,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4121,10 +4073,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4150,10 +4102,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -4179,10 +4131,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4208,10 +4160,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4237,10 +4189,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4266,10 +4218,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>45</v>
@@ -4295,10 +4247,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
         <v>126</v>
@@ -4324,10 +4276,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4353,10 +4305,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G59" t="n">
         <v>11</v>
@@ -4382,10 +4334,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4414,7 +4366,7 @@
         <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -4440,13 +4392,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G62" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -4469,10 +4421,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4498,10 +4450,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4527,10 +4479,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4556,10 +4508,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4585,10 +4537,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4614,10 +4566,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4643,10 +4595,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4672,10 +4624,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4701,10 +4653,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
         <v>19</v>
@@ -4730,10 +4682,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G72" t="n">
         <v>9</v>
@@ -4759,10 +4711,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4788,10 +4740,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4817,10 +4769,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4846,10 +4798,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4875,10 +4827,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -4904,10 +4856,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -4933,10 +4885,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4962,10 +4914,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4991,10 +4943,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5020,10 +4972,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -5049,10 +5001,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -5078,10 +5030,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -5107,10 +5059,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5136,10 +5088,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5165,10 +5117,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -5194,10 +5146,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -5223,10 +5175,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -5252,10 +5204,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5281,10 +5233,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5310,10 +5262,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5339,10 +5291,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5368,10 +5320,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5397,10 +5349,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5426,10 +5378,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5455,10 +5407,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5484,10 +5436,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5513,10 +5465,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5542,10 +5494,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5571,10 +5523,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>8</v>
@@ -5600,10 +5552,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5629,10 +5581,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5658,10 +5610,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5687,10 +5639,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5716,10 +5668,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5745,10 +5697,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5774,10 +5726,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5803,10 +5755,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5832,10 +5784,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -5861,10 +5813,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5890,10 +5842,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5919,10 +5871,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F113" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5948,10 +5900,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5977,10 +5929,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6006,10 +5958,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6035,10 +5987,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -6064,10 +6016,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6093,10 +6045,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6122,10 +6074,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6151,10 +6103,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>7</v>
@@ -6180,10 +6132,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6209,10 +6161,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6238,10 +6190,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6267,10 +6219,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6296,10 +6248,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6325,10 +6277,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6354,10 +6306,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6383,10 +6335,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6412,10 +6364,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6441,10 +6393,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6470,10 +6422,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
         <v>20</v>
@@ -6499,10 +6451,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6528,10 +6480,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>11</v>
@@ -6557,10 +6509,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6586,10 +6538,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -6615,10 +6567,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6644,10 +6596,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6673,10 +6625,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6702,10 +6654,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6731,10 +6683,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6760,10 +6712,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6789,10 +6741,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6818,10 +6770,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6847,10 +6799,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6876,10 +6828,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6905,10 +6857,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6934,10 +6886,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6963,10 +6915,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6992,10 +6944,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7021,10 +6973,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7050,10 +7002,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F152" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7079,10 +7031,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7108,10 +7060,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G154" t="n">
         <v>7</v>
@@ -7137,10 +7089,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7166,10 +7118,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7195,10 +7147,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7224,10 +7176,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7253,10 +7205,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7282,10 +7234,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7311,10 +7263,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7340,10 +7292,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7369,10 +7321,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7398,10 +7350,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7427,10 +7379,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7456,10 +7408,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7485,10 +7437,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7514,10 +7466,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7543,10 +7495,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F169" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7572,10 +7524,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -7601,10 +7553,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7630,10 +7582,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7659,10 +7611,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7688,10 +7640,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7717,10 +7669,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7746,10 +7698,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7775,10 +7727,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7804,10 +7756,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7833,10 +7785,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7862,10 +7814,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7891,10 +7843,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7920,10 +7872,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7949,10 +7901,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7978,10 +7930,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8007,10 +7959,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8036,10 +7988,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8065,10 +8017,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8094,10 +8046,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8123,10 +8075,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8152,10 +8104,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8181,10 +8133,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8210,10 +8162,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8239,10 +8191,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G193" t="n">
         <v>5</v>
@@ -8268,10 +8220,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F194" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G194" t="n">
         <v>13</v>
@@ -8297,10 +8249,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8326,10 +8278,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F196" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G196" t="n">
         <v>11</v>
@@ -8355,10 +8307,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F197" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G197" t="n">
         <v>19</v>
@@ -8384,10 +8336,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G198" t="n">
         <v>18</v>
@@ -8413,10 +8365,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8442,10 +8394,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -8471,10 +8423,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8500,10 +8452,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8529,10 +8481,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8558,10 +8510,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8587,10 +8539,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8616,10 +8568,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8645,10 +8597,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F207" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8674,10 +8626,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8703,10 +8655,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8732,10 +8684,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8761,10 +8713,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8790,10 +8742,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F212" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8819,10 +8771,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F213" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8848,10 +8800,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F214" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8877,10 +8829,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F215" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8906,10 +8858,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F216" t="s">
-        <v>396</v>
+        <v>262</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8935,10 +8887,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F217" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8964,10 +8916,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F218" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8993,10 +8945,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F219" t="s">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9022,10 +8974,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F220" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9051,10 +9003,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F221" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9080,10 +9032,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9109,10 +9061,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F223" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9138,10 +9090,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F224" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9167,10 +9119,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9196,10 +9148,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F226" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9225,10 +9177,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F227" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9254,10 +9206,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F228" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9283,10 +9235,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F229" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G229" t="n">
         <v>26</v>
@@ -9312,10 +9264,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F230" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -9341,10 +9293,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F231" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9370,10 +9322,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F232" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9399,10 +9351,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F233" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9428,10 +9380,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F234" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9457,10 +9409,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F235" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9486,10 +9438,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F236" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9515,10 +9467,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F237" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9544,10 +9496,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F238" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9573,10 +9525,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F239" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9602,10 +9554,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F240" t="s">
-        <v>432</v>
+        <v>357</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9631,10 +9583,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F241" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9660,10 +9612,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F242" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9689,10 +9641,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F243" t="s">
-        <v>438</v>
+        <v>183</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9718,10 +9670,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F244" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9747,10 +9699,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F245" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9776,10 +9728,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F246" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9805,10 +9757,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F247" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9834,10 +9786,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F248" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9863,10 +9815,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F249" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G249" t="n">
         <v>12</v>
@@ -9892,10 +9844,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F250" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G250" t="n">
         <v>48</v>
@@ -9921,10 +9873,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F251" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G251" t="n">
         <v>12</v>
@@ -9950,10 +9902,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F252" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9979,10 +9931,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F253" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G253" t="n">
         <v>11</v>
@@ -10008,10 +9960,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F254" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10037,10 +9989,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F255" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G255" t="n">
         <v>13</v>
@@ -10066,10 +10018,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F256" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10124,10 +10076,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F258" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G258" t="n">
         <v>14</v>
@@ -10153,10 +10105,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F259" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10182,10 +10134,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F260" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10211,10 +10163,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F261" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10240,10 +10192,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F262" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10269,10 +10221,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F263" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10298,10 +10250,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F264" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10327,10 +10279,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F265" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10356,10 +10308,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F266" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10385,10 +10337,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F267" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10414,10 +10366,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F268" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10443,10 +10395,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F269" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10472,10 +10424,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F270" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10501,10 +10453,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F271" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10530,10 +10482,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F272" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10559,10 +10511,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F273" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G273" t="n">
         <v>19</v>
@@ -10588,10 +10540,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F274" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -10617,10 +10569,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F275" t="s">
-        <v>498</v>
+        <v>14</v>
       </c>
       <c r="G275" t="n">
         <v>34</v>
@@ -10646,10 +10598,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F276" t="s">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G276" t="n">
         <v>6</v>
@@ -10675,10 +10627,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F277" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10704,10 +10656,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F278" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G278" t="n">
         <v>13</v>
@@ -10733,10 +10685,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F279" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10762,10 +10714,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F280" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10791,10 +10743,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F281" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10820,10 +10772,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F282" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10849,10 +10801,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F283" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10878,10 +10830,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F284" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10907,10 +10859,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F285" t="s">
-        <v>518</v>
+        <v>143</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10936,10 +10888,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F286" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10965,10 +10917,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F287" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10994,10 +10946,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="F288" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11023,10 +10975,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F289" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11052,10 +11004,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F290" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11081,10 +11033,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F291" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11110,10 +11062,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="F292" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11139,10 +11091,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F293" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11168,10 +11120,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F294" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11197,10 +11149,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="F295" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11226,10 +11178,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="F296" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11255,10 +11207,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="F297" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11284,10 +11236,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F298" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G298" t="n">
         <v>4</v>
@@ -11313,10 +11265,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F299" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11342,10 +11294,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F300" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11371,10 +11323,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F301" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11400,10 +11352,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F302" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11429,10 +11381,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F303" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G303" t="n">
         <v>6</v>
@@ -11458,10 +11410,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F304" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G304" t="n">
         <v>33</v>
@@ -11487,10 +11439,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F305" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11516,10 +11468,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="F306" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11545,10 +11497,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F307" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G307" t="n">
         <v>3</v>
@@ -11574,10 +11526,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F308" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11603,10 +11555,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F309" t="s">
-        <v>560</v>
+        <v>249</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11632,10 +11584,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F310" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11661,10 +11613,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="F311" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="G311" t="n">
         <v>3</v>
@@ -11690,10 +11642,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="F312" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11719,10 +11671,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F313" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11748,10 +11700,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="F314" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11777,10 +11729,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="F315" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11806,10 +11758,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F316" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11835,10 +11787,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F317" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11864,10 +11816,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="F318" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11893,10 +11845,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F319" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11922,10 +11874,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F320" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11951,10 +11903,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="F321" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11980,10 +11932,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="F322" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12009,10 +11961,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="F323" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12067,10 +12019,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="F325" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12096,10 +12048,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F326" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12125,10 +12077,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F327" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G327" t="n">
         <v>4</v>
@@ -12154,10 +12106,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F328" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12183,10 +12135,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="F329" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12212,10 +12164,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F330" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12241,10 +12193,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F331" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12270,10 +12222,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F332" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12299,10 +12251,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F333" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12328,10 +12280,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F334" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="G334" t="n">
         <v>4</v>
@@ -12357,10 +12309,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="F335" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="G335" t="n">
         <v>4</v>
@@ -12386,10 +12338,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F336" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12415,10 +12367,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F337" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12444,10 +12396,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F338" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12473,10 +12425,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F339" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12502,10 +12454,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F340" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12531,10 +12483,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F341" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12560,10 +12512,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="F342" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12589,10 +12541,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="F343" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12618,10 +12570,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F344" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12647,10 +12599,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F345" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12676,10 +12628,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="F346" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12705,10 +12657,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F347" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12734,10 +12686,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="F348" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12763,10 +12715,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="F349" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12792,10 +12744,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="F350" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12821,10 +12773,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F351" t="s">
-        <v>642</v>
+        <v>98</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12850,10 +12802,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="F352" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="G352" t="n">
         <v>3</v>
@@ -12879,10 +12831,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="F353" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12908,10 +12860,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="F354" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12937,10 +12889,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="F355" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12966,10 +12918,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="F356" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12995,10 +12947,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="F357" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13024,10 +12976,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="F358" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13053,10 +13005,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="F359" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13082,10 +13034,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="F360" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13111,10 +13063,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="F361" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13140,10 +13092,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F362" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13169,10 +13121,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="F363" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13198,10 +13150,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F364" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13227,10 +13179,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="F365" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G365" t="n">
         <v>6</v>
@@ -13256,10 +13208,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="F366" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13285,10 +13237,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="F367" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="G367" t="n">
         <v>3</v>
@@ -13314,10 +13266,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="F368" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13343,10 +13295,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="F369" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G369" t="n">
         <v>11</v>
@@ -13372,10 +13324,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="F370" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13401,10 +13353,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="F371" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13430,10 +13382,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="F372" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13459,10 +13411,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F373" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13488,10 +13440,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="F374" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13517,10 +13469,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="F375" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="G375" t="n">
         <v>8</v>
@@ -13546,10 +13498,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="F376" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G376" t="n">
         <v>11</v>
@@ -13575,10 +13527,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F377" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13604,10 +13556,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="F378" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -13633,10 +13585,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="F379" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13662,10 +13614,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F380" t="s">
-        <v>700</v>
+        <v>631</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13691,10 +13643,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="F381" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13720,10 +13672,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F382" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13749,10 +13701,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="F383" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13778,10 +13730,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="F384" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -13807,10 +13759,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="F385" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13836,10 +13788,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="F386" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13865,10 +13817,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F387" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13894,10 +13846,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="F388" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13923,10 +13875,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="F389" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="G389" t="n">
         <v>5</v>
@@ -13952,10 +13904,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="F390" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13981,10 +13933,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="F391" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14010,10 +13962,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="F392" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="G392" t="n">
         <v>4</v>
@@ -14039,10 +13991,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="F393" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14068,10 +14020,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="F394" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14097,10 +14049,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="F395" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14126,10 +14078,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="F396" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="G396" t="n">
         <v>4</v>
@@ -14155,10 +14107,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="F397" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14184,10 +14136,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="F398" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14213,10 +14165,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="F399" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14242,10 +14194,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="F400" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="G400" t="n">
         <v>21</v>
@@ -14271,10 +14223,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="F401" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14300,10 +14252,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="F402" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14329,10 +14281,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="F403" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14358,10 +14310,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="F404" t="s">
-        <v>748</v>
+        <v>187</v>
       </c>
       <c r="G404" t="n">
         <v>7</v>
@@ -14387,10 +14339,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="F405" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14416,10 +14368,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="F406" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14445,10 +14397,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="F407" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14474,10 +14426,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="F408" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="G408" t="n">
         <v>9</v>
@@ -14503,10 +14455,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="F409" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14532,10 +14484,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="F410" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14561,10 +14513,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="F411" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14573,6 +14525,64 @@
         <v>4</v>
       </c>
       <c r="I411" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1</v>
+      </c>
+      <c r="D412" t="n">
+        <v>411</v>
+      </c>
+      <c r="E412" t="s">
+        <v>744</v>
+      </c>
+      <c r="F412" t="s">
+        <v>745</v>
+      </c>
+      <c r="G412" t="n">
+        <v>8</v>
+      </c>
+      <c r="H412" t="s">
+        <v>4</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1</v>
+      </c>
+      <c r="D413" t="n">
+        <v>412</v>
+      </c>
+      <c r="E413" t="s">
+        <v>744</v>
+      </c>
+      <c r="F413" t="s">
+        <v>746</v>
+      </c>
+      <c r="G413" t="n">
+        <v>6</v>
+      </c>
+      <c r="H413" t="s">
+        <v>4</v>
+      </c>
+      <c r="I413" t="n">
         <v>3</v>
       </c>
     </row>
